--- a/仕様書/糸の道仕様.xlsx
+++ b/仕様書/糸の道仕様.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>スピード形態</t>
     <rPh sb="4" eb="6">
@@ -118,6 +118,16 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャを道に貼る</t>
+    <rPh sb="6" eb="7">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -468,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B2:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,6 +521,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
